--- a/Assets/ExcelDB/HumalPickDB.xlsx
+++ b/Assets/ExcelDB/HumalPickDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/839ddb42cfaea410/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Invasion\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{BAFA6A63-8F5C-44B0-9DDD-11047C58F3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366DFC67-7C28-4985-AF2B-A7E2B8A50504}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3ECF4-B1AA-4571-A550-B69CA957F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24000" yWindow="2640" windowWidth="21600" windowHeight="11505" xr2:uid="{6EC2958D-E6DE-4796-B303-E8206AD880B5}"/>
+    <workbookView xWindow="10365" yWindow="2055" windowWidth="16875" windowHeight="11505" xr2:uid="{6EC2958D-E6DE-4796-B303-E8206AD880B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
-    <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name_ko</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   </si>
   <si>
     <t>piece_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -255,10 +255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,7 +557,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,39 +567,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>6.47</v>
@@ -623,13 +619,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>6.47</v>
@@ -649,13 +645,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>6.47</v>
@@ -675,13 +671,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>6.47</v>
@@ -701,13 +697,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>6.47</v>
@@ -727,13 +723,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>6.47</v>
@@ -748,18 +744,18 @@
         <v>0.47</v>
       </c>
       <c r="H7" s="1">
-        <v>0.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>6.47</v>
@@ -779,13 +775,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>6.47</v>
@@ -805,13 +801,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>6.47</v>
@@ -831,13 +827,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>6.47</v>
@@ -857,13 +853,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>6.47</v>
@@ -883,13 +879,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>6.47</v>
@@ -909,13 +905,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>6.47</v>
@@ -935,13 +931,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>6.47</v>
@@ -961,13 +957,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>6.47</v>

--- a/Assets/ExcelDB/HumalPickDB.xlsx
+++ b/Assets/ExcelDB/HumalPickDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Invasion\Assets\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3ECF4-B1AA-4571-A550-B69CA957F388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14743E-B6CC-498C-A086-308EB65586B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="2055" windowWidth="16875" windowHeight="11505" xr2:uid="{6EC2958D-E6DE-4796-B303-E8206AD880B5}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="14925" xr2:uid="{6EC2958D-E6DE-4796-B303-E8206AD880B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>name_ko</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,91 +90,122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Nana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssamdak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BbeongAl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pudding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jungle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ddochi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YoungMi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bella</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_probability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>아랑</t>
+  </si>
+  <si>
+    <t>Arang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>리요</t>
+  </si>
+  <si>
+    <t>Riyo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이미넴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amynem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고덕칠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoDuckChill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>콩지</t>
+  </si>
+  <si>
+    <t>KongJi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>파치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ssamdak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BbeongAl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pudding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pearl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jungle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ddochi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YoungMi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bella</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>humal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+  </si>
+  <si>
+    <t>PatJi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야</t>
+  </si>
+  <si>
+    <t>Maya</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,21 +237,101 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -232,12 +343,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -546,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFC742A-9C24-44B4-BE38-711DC3A696A5}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -567,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -576,19 +705,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -599,22 +728,23 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.2</v>
+        <f>SUM(E2,F2,G2)</f>
+        <v>5.38</v>
+      </c>
+      <c r="E2">
+        <v>4.16</v>
+      </c>
+      <c r="F2">
+        <v>0.83</v>
+      </c>
+      <c r="G2">
+        <v>0.39</v>
+      </c>
+      <c r="H2">
+        <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,22 +755,23 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.2</v>
+        <f t="shared" ref="D3:D19" si="0">SUM(E3,F3,G3)</f>
+        <v>5.38</v>
+      </c>
+      <c r="E3">
+        <v>4.16</v>
+      </c>
+      <c r="F3">
+        <v>0.83</v>
+      </c>
+      <c r="G3">
+        <v>0.39</v>
+      </c>
+      <c r="H3">
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -651,22 +782,23 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E4">
+        <v>4.16</v>
+      </c>
+      <c r="F4">
+        <v>0.83</v>
+      </c>
+      <c r="G4">
+        <v>0.39</v>
+      </c>
+      <c r="H4">
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,22 +809,23 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E5">
+        <v>4.16</v>
+      </c>
+      <c r="F5">
+        <v>0.83</v>
+      </c>
+      <c r="G5">
+        <v>0.39</v>
+      </c>
+      <c r="H5">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -703,22 +836,23 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E6">
+        <v>4.16</v>
+      </c>
+      <c r="F6">
+        <v>0.83</v>
+      </c>
+      <c r="G6">
+        <v>0.39</v>
+      </c>
+      <c r="H6">
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,22 +863,23 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H7" s="1">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E7">
+        <v>4.16</v>
+      </c>
+      <c r="F7">
+        <v>0.83</v>
+      </c>
+      <c r="G7">
+        <v>0.39</v>
+      </c>
+      <c r="H7">
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -755,22 +890,23 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E8">
+        <v>4.16</v>
+      </c>
+      <c r="F8">
+        <v>0.83</v>
+      </c>
+      <c r="G8">
+        <v>0.39</v>
+      </c>
+      <c r="H8">
+        <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -781,22 +917,23 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E9">
+        <v>4.16</v>
+      </c>
+      <c r="F9">
+        <v>0.83</v>
+      </c>
+      <c r="G9">
+        <v>0.39</v>
+      </c>
+      <c r="H9">
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -807,22 +944,23 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E10">
+        <v>4.16</v>
+      </c>
+      <c r="F10">
+        <v>0.83</v>
+      </c>
+      <c r="G10">
+        <v>0.39</v>
+      </c>
+      <c r="H10">
+        <v>0.17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -833,22 +971,23 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E11">
+        <v>4.16</v>
+      </c>
+      <c r="F11">
+        <v>0.83</v>
+      </c>
+      <c r="G11">
+        <v>0.39</v>
+      </c>
+      <c r="H11">
+        <v>0.17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -859,22 +998,23 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E12">
+        <v>4.16</v>
+      </c>
+      <c r="F12">
+        <v>0.83</v>
+      </c>
+      <c r="G12">
+        <v>0.39</v>
+      </c>
+      <c r="H12">
+        <v>0.17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -882,25 +1022,26 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E13">
+        <v>4.16</v>
+      </c>
+      <c r="F13">
+        <v>0.83</v>
+      </c>
+      <c r="G13">
+        <v>0.39</v>
+      </c>
+      <c r="H13">
+        <v>0.17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -908,77 +1049,161 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E14">
+        <v>4.16</v>
+      </c>
+      <c r="F14">
+        <v>0.83</v>
+      </c>
+      <c r="G14">
+        <v>0.39</v>
+      </c>
+      <c r="H14">
+        <v>0.17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E15">
+        <v>4.16</v>
+      </c>
+      <c r="F15">
+        <v>0.83</v>
+      </c>
+      <c r="G15">
+        <v>0.39</v>
+      </c>
+      <c r="H15">
+        <v>0.17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E16">
+        <v>4.16</v>
+      </c>
+      <c r="F16">
+        <v>0.83</v>
+      </c>
+      <c r="G16">
+        <v>0.39</v>
+      </c>
+      <c r="H16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E17">
+        <v>4.16</v>
+      </c>
+      <c r="F17">
+        <v>0.83</v>
+      </c>
+      <c r="G17">
+        <v>0.39</v>
+      </c>
+      <c r="H17">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.47</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.2</v>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E18">
+        <v>4.16</v>
+      </c>
+      <c r="F18">
+        <v>0.83</v>
+      </c>
+      <c r="G18">
+        <v>0.39</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E19">
+        <v>4.16</v>
+      </c>
+      <c r="F19">
+        <v>0.83</v>
+      </c>
+      <c r="G19">
+        <v>0.39</v>
+      </c>
+      <c r="H19">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
